--- a/config_aomi_7.13/game_module_config.xlsx
+++ b/config_aomi_7.13/game_module_config.xlsx
@@ -3872,9 +3872,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3951,45 +3951,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4009,11 +3977,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4025,7 +3992,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4039,9 +4006,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4063,8 +4045,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4079,6 +4062,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4086,8 +4085,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4157,7 +4157,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4169,13 +4193,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4187,19 +4229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,25 +4265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4241,55 +4283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4307,25 +4301,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4354,37 +4354,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4404,17 +4384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4438,6 +4412,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -4445,9 +4443,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4459,10 +4459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,137 +4471,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5099,11 +5099,11 @@
   <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E342" sqref="E342"/>
+      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12096,13 +12096,13 @@
         <v>797</v>
       </c>
       <c r="E275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="50">
         <v>44368</v>

--- a/config_aomi_7.13/game_module_config.xlsx
+++ b/config_aomi_7.13/game_module_config.xlsx
@@ -3871,10 +3871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3952,19 +3952,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3978,37 +3981,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4022,16 +3995,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4069,6 +4042,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4077,7 +4071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4095,6 +4088,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4157,19 +4157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4181,13 +4175,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4199,13 +4217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4223,19 +4235,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4253,25 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4283,31 +4301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,13 +4319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4355,6 +4355,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4369,17 +4384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,8 +4396,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4404,15 +4413,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4435,8 +4435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4459,10 +4459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,137 +4471,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5099,11 +5099,11 @@
   <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
+      <selection pane="bottomRight" activeCell="E335" sqref="E335:G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13628,13 +13628,13 @@
         <v>980</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="33" t="s">
         <v>981</v>
